--- a/结果/2_寻优结果_花菜类.xlsx
+++ b/结果/2_寻优结果_花菜类.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>30.75168801800444</v>
+        <v>18.36818036065664</v>
       </c>
       <c r="C2" t="n">
-        <v>36.95328607933533</v>
+        <v>11.11806095574824</v>
       </c>
       <c r="D2" t="n">
-        <v>36.95328607933533</v>
+        <v>11.11806095574824</v>
       </c>
       <c r="E2" t="n">
-        <v>36.39683751687115</v>
+        <v>21.74006433975221</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>30.62368242112272</v>
+        <v>18.36818036065664</v>
       </c>
       <c r="C3" t="n">
-        <v>36.64640925077688</v>
+        <v>11.11806095574824</v>
       </c>
       <c r="D3" t="n">
-        <v>36.64640925077688</v>
+        <v>11.11806095574824</v>
       </c>
       <c r="E3" t="n">
-        <v>36.2453336739528</v>
+        <v>21.74006433975221</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>30.62368242112272</v>
+        <v>18.36818036065664</v>
       </c>
       <c r="C4" t="n">
-        <v>36.64640925077688</v>
+        <v>11.11806095574824</v>
       </c>
       <c r="D4" t="n">
-        <v>36.64640925077688</v>
+        <v>11.11806095574824</v>
       </c>
       <c r="E4" t="n">
-        <v>36.2453336739528</v>
+        <v>21.74006433975221</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>30.87958917143393</v>
+        <v>17.91302847148859</v>
       </c>
       <c r="C5" t="n">
-        <v>37.26144244849523</v>
+        <v>10.57384368287073</v>
       </c>
       <c r="D5" t="n">
-        <v>37.26144244849523</v>
+        <v>10.57384368287073</v>
       </c>
       <c r="E5" t="n">
-        <v>36.54821774344175</v>
+        <v>21.20135929872007</v>
       </c>
     </row>
     <row r="6">
@@ -538,16 +538,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30.75168801800444</v>
+        <v>18.36818036065664</v>
       </c>
       <c r="C6" t="n">
-        <v>36.95328607933533</v>
+        <v>11.11806095574824</v>
       </c>
       <c r="D6" t="n">
-        <v>36.95328607933533</v>
+        <v>11.11806095574824</v>
       </c>
       <c r="E6" t="n">
-        <v>36.39683751687115</v>
+        <v>21.74006433975221</v>
       </c>
     </row>
     <row r="7">
@@ -557,16 +557,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30.62368242112272</v>
+        <v>18.36818036065664</v>
       </c>
       <c r="C7" t="n">
-        <v>36.64640925077688</v>
+        <v>11.11806095574824</v>
       </c>
       <c r="D7" t="n">
-        <v>36.64640925077688</v>
+        <v>11.11806095574824</v>
       </c>
       <c r="E7" t="n">
-        <v>36.2453336739528</v>
+        <v>21.74006433975221</v>
       </c>
     </row>
     <row r="8">
@@ -576,16 +576,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>30.62368242112272</v>
+        <v>18.36818036065664</v>
       </c>
       <c r="C8" t="n">
-        <v>36.64640925077688</v>
+        <v>11.11806095574824</v>
       </c>
       <c r="D8" t="n">
-        <v>36.64640925077688</v>
+        <v>11.11806095574824</v>
       </c>
       <c r="E8" t="n">
-        <v>36.2453336739528</v>
+        <v>21.74006433975221</v>
       </c>
     </row>
   </sheetData>
